--- a/src/test/java/com/example/Andersen/тест.xlsx
+++ b/src/test/java/com/example/Andersen/тест.xlsx
@@ -46,10 +46,10 @@
     <t>Челов</t>
   </si>
   <si>
-    <t>Путин</t>
-  </si>
-  <si>
     <t>Обэмов</t>
+  </si>
+  <si>
+    <t>Пынин</t>
   </si>
 </sst>
 </file>
@@ -394,7 +394,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,7 +481,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>80</v>
@@ -489,7 +489,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>76</v>
